--- a/LithuaniaProject-main/Lithuania/src/Castle_Information/LithuanianCastleInformation.xlsx
+++ b/LithuaniaProject-main/Lithuania/src/Castle_Information/LithuanianCastleInformation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hughessa\AppData\Roaming\Microsoft\Windows\Network Shortcuts\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hughessa\git\LithuaniaProject-main\LithuaniaProject-main\Lithuania\src\Castle_Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{440231F5-0D51-486B-8126-250CE3852F57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F03259-F25C-432B-A252-9BB7A1C09055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4128" yWindow="2472" windowWidth="17280" windowHeight="8964" xr2:uid="{554E79FA-8833-4487-8909-BE832A35A750}"/>
+    <workbookView xWindow="5196" yWindow="1308" windowWidth="17280" windowHeight="8964" xr2:uid="{554E79FA-8833-4487-8909-BE832A35A750}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Gotcha</t>
+  </si>
+  <si>
+    <t>Jimmy</t>
+  </si>
+  <si>
+    <t>Sinh</t>
   </si>
 </sst>
 </file>
@@ -392,15 +398,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB10C01-DE10-4572-8BA3-A1876C507AA6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
